--- a/servos_exemplo.xlsx
+++ b/servos_exemplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz-\Documents\Projetos\chat-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92EA09EC-17CE-4848-AAD0-81D9D8591CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932EBD6F-F8D0-48F6-8439-81AAC477FB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A3A0130-2D19-47B3-9B86-DABFC5F77B9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Nome</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>jose.pereira@exemplo.com</t>
+  </si>
+  <si>
+    <t>Pedro Barretto</t>
+  </si>
+  <si>
+    <t>5521990018001</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>exemplo</t>
   </si>
 </sst>
 </file>
@@ -185,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -203,6 +215,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5E46F7-7B6B-400A-9702-D0BB903B31A0}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,6 +636,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
